--- a/docs/PerformanceTesting.xlsx
+++ b/docs/PerformanceTesting.xlsx
@@ -69,7 +69,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -163,11 +163,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -176,16 +220,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -264,14 +314,14 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>129.11011999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>100</c:v>
+                  <c:v>129.11011999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>129.11011999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -314,14 +364,14 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>128.11011999999999</c:v>
+                <c:pt idx="0">
+                  <c:v>129.11011999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>100</c:v>
+                  <c:v>129.11011999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>129.11011999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -369,7 +419,7 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="97488256"/>
         <c:crosses val="autoZero"/>
@@ -712,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -771,96 +821,191 @@
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="20">
         <f>129110.12/1000</f>
         <v>129.11011999999999</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="2"/>
+      <c r="C4" s="20">
+        <f>129110.12/1000</f>
+        <v>129.11011999999999</v>
+      </c>
+      <c r="D4" s="16">
+        <f>129110.12/1000</f>
+        <v>129.11011999999999</v>
+      </c>
+      <c r="E4" s="17">
+        <f>129110.12/1000</f>
+        <v>129.11011999999999</v>
+      </c>
+      <c r="F4" s="20">
+        <f t="shared" ref="F4:G4" si="0">129110.12/1000</f>
+        <v>129.11011999999999</v>
+      </c>
+      <c r="G4" s="20">
+        <f t="shared" si="0"/>
+        <v>129.11011999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
         <f>A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5">
-        <f t="shared" ref="B5:B8" si="0">129110.12/1000</f>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="2"/>
+      <c r="B5" s="20">
+        <f t="shared" ref="B5:G8" si="1">129110.12/1000</f>
+        <v>129.11011999999999</v>
+      </c>
+      <c r="C5" s="20">
+        <f t="shared" si="1"/>
+        <v>129.11011999999999</v>
+      </c>
+      <c r="D5" s="12">
+        <f t="shared" si="1"/>
+        <v>129.11011999999999</v>
+      </c>
+      <c r="E5" s="13">
+        <f t="shared" si="1"/>
+        <v>129.11011999999999</v>
+      </c>
+      <c r="F5" s="20">
+        <f t="shared" si="1"/>
+        <v>129.11011999999999</v>
+      </c>
+      <c r="G5" s="20">
+        <f t="shared" si="1"/>
+        <v>129.11011999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <f t="shared" ref="A6:A8" si="1">A5+1</f>
+        <f t="shared" ref="A6:A8" si="2">A5+1</f>
         <v>3</v>
       </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="2"/>
+      <c r="B6" s="20">
+        <f t="shared" si="1"/>
+        <v>129.11011999999999</v>
+      </c>
+      <c r="C6" s="20">
+        <f t="shared" si="1"/>
+        <v>129.11011999999999</v>
+      </c>
+      <c r="D6" s="12">
+        <f t="shared" si="1"/>
+        <v>129.11011999999999</v>
+      </c>
+      <c r="E6" s="13">
+        <f t="shared" si="1"/>
+        <v>129.11011999999999</v>
+      </c>
+      <c r="F6" s="20">
+        <f t="shared" si="1"/>
+        <v>129.11011999999999</v>
+      </c>
+      <c r="G6" s="20">
+        <f t="shared" si="1"/>
+        <v>129.11011999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="2"/>
+      <c r="B7" s="20">
+        <f t="shared" si="1"/>
+        <v>129.11011999999999</v>
+      </c>
+      <c r="C7" s="20">
+        <f t="shared" si="1"/>
+        <v>129.11011999999999</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="1"/>
+        <v>129.11011999999999</v>
+      </c>
+      <c r="E7" s="13">
+        <f t="shared" si="1"/>
+        <v>129.11011999999999</v>
+      </c>
+      <c r="F7" s="20">
+        <f t="shared" si="1"/>
+        <v>129.11011999999999</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" si="1"/>
+        <v>129.11011999999999</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1">
       <c r="A8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="2"/>
+      <c r="B8" s="20">
+        <f t="shared" si="1"/>
+        <v>129.11011999999999</v>
+      </c>
+      <c r="C8" s="20">
+        <f t="shared" si="1"/>
+        <v>129.11011999999999</v>
+      </c>
+      <c r="D8" s="18">
+        <f t="shared" si="1"/>
+        <v>129.11011999999999</v>
+      </c>
+      <c r="E8" s="19">
+        <f t="shared" si="1"/>
+        <v>129.11011999999999</v>
+      </c>
+      <c r="F8" s="20">
+        <f t="shared" si="1"/>
+        <v>129.11011999999999</v>
+      </c>
+      <c r="G8" s="20">
+        <f t="shared" si="1"/>
+        <v>129.11011999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="21">
         <f>AVERAGE(B4:B8)</f>
         <v>129.11011999999999</v>
       </c>
-      <c r="C9" s="8">
-        <v>128.11011999999999</v>
-      </c>
-      <c r="D9" s="12">
-        <v>100</v>
-      </c>
-      <c r="E9" s="13">
-        <v>100</v>
-      </c>
-      <c r="F9" s="8">
-        <v>100</v>
-      </c>
-      <c r="G9" s="8">
-        <v>100</v>
+      <c r="C9" s="21">
+        <f t="shared" ref="C9:G9" si="3">AVERAGE(C4:C8)</f>
+        <v>129.11011999999999</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" si="3"/>
+        <v>129.11011999999999</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" si="3"/>
+        <v>129.11011999999999</v>
+      </c>
+      <c r="F9" s="21">
+        <f t="shared" si="3"/>
+        <v>129.11011999999999</v>
+      </c>
+      <c r="G9" s="21">
+        <f t="shared" si="3"/>
+        <v>129.11011999999999</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="7">
         <f>B9/C9</f>
-        <v>1.0078057845859485</v>
-      </c>
-      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
         <f>C9/B9</f>
-        <v>0.99225467376221166</v>
+        <v>1</v>
       </c>
       <c r="D10" s="14">
         <f>D9/E9</f>
@@ -870,17 +1015,17 @@
         <f>E9/D9</f>
         <v>1</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="8">
         <f>F9/G9</f>
         <v>1</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="8">
         <f>G9/F9</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="F16" s="11"/>
+      <c r="F16" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/PerformanceTesting.xlsx
+++ b/docs/PerformanceTesting.xlsx
@@ -33,9 +33,6 @@
     <t>After Optimizing Work Size</t>
   </si>
   <si>
-    <t>Ratio</t>
-  </si>
-  <si>
     <t>Testing Data: Tests were preformed on a 1000x1000x100 chunk of data.</t>
   </si>
   <si>
@@ -44,13 +41,16 @@
   <si>
     <t>CPU (s)</t>
   </si>
+  <si>
+    <t>X Speedup</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -211,31 +211,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -315,10 +313,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>129.11011999999999</c:v>
+                  <c:v>130.306026</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>129.11011999999999</c:v>
+                  <c:v>77.466071999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>129.11011999999999</c:v>
@@ -365,10 +363,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>129.11011999999999</c:v>
+                  <c:v>1244.5214120000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>129.11011999999999</c:v>
+                  <c:v>1241.2470000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>129.11011999999999</c:v>
@@ -377,24 +375,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="97488256"/>
-        <c:axId val="97491200"/>
+        <c:axId val="78002816"/>
+        <c:axId val="94978432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97488256"/>
+        <c:axId val="78002816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97491200"/>
+        <c:crossAx val="94978432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97491200"/>
+        <c:axId val="94978432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -421,7 +419,7 @@
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97488256"/>
+        <c:crossAx val="78002816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -434,7 +432,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -763,11 +761,12 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
@@ -776,256 +775,256 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="19"/>
       <c r="F2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="15">
+        <f>128345.64/1000</f>
+        <v>128.34564</v>
+      </c>
+      <c r="C4" s="15">
+        <f>1245509.73/1000</f>
+        <v>1245.50973</v>
+      </c>
+      <c r="D4" s="11">
         <f>129110.12/1000</f>
         <v>129.11011999999999</v>
       </c>
-      <c r="C4" s="20">
-        <f>129110.12/1000</f>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="D4" s="16">
-        <f>129110.12/1000</f>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="E4" s="17">
-        <f>129110.12/1000</f>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="F4" s="20">
+      <c r="E4" s="12">
+        <f>1241247/1000</f>
+        <v>1241.2470000000001</v>
+      </c>
+      <c r="F4" s="15">
         <f t="shared" ref="F4:G4" si="0">129110.12/1000</f>
         <v>129.11011999999999</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="15">
         <f t="shared" si="0"/>
         <v>129.11011999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <f>A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="15">
+        <f>127848.38/1000</f>
+        <v>127.84838000000001</v>
+      </c>
+      <c r="C5" s="15">
+        <f>1240732.15/1000</f>
+        <v>1240.7321499999998</v>
+      </c>
+      <c r="D5" s="9">
         <f t="shared" ref="B5:G8" si="1">129110.12/1000</f>
         <v>129.11011999999999</v>
       </c>
-      <c r="C5" s="20">
+      <c r="E5" s="10">
+        <f t="shared" ref="E5:E8" si="2">1241247/1000</f>
+        <v>1241.2470000000001</v>
+      </c>
+      <c r="F5" s="15">
         <f t="shared" si="1"/>
         <v>129.11011999999999</v>
       </c>
-      <c r="D5" s="12">
-        <f t="shared" si="1"/>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="E5" s="13">
-        <f t="shared" si="1"/>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="F5" s="20">
-        <f t="shared" si="1"/>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="G5" s="20">
+      <c r="G5" s="15">
         <f t="shared" si="1"/>
         <v>129.11011999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="2">
-        <f t="shared" ref="A6:A8" si="2">A5+1</f>
+      <c r="A6" s="1">
+        <f t="shared" ref="A6:A8" si="3">A5+1</f>
         <v>3</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="15">
+        <f>131921.15/1000</f>
+        <v>131.92114999999998</v>
+      </c>
+      <c r="C6" s="15">
+        <f>1247462.35/1000</f>
+        <v>1247.46235</v>
+      </c>
+      <c r="D6" s="9">
         <f t="shared" si="1"/>
         <v>129.11011999999999</v>
       </c>
-      <c r="C6" s="20">
+      <c r="E6" s="10">
+        <f t="shared" si="2"/>
+        <v>1241.2470000000001</v>
+      </c>
+      <c r="F6" s="15">
         <f t="shared" si="1"/>
         <v>129.11011999999999</v>
       </c>
-      <c r="D6" s="12">
-        <f t="shared" si="1"/>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="E6" s="13">
-        <f t="shared" si="1"/>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="F6" s="20">
-        <f t="shared" si="1"/>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="G6" s="20">
+      <c r="G6" s="15">
         <f t="shared" si="1"/>
         <v>129.11011999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="15">
+        <f>131699.53/1000</f>
+        <v>131.69953000000001</v>
+      </c>
+      <c r="C7" s="15">
+        <f>1241247.54/1000</f>
+        <v>1241.2475400000001</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" si="1"/>
+        <v>129.11011999999999</v>
+      </c>
+      <c r="E7" s="10">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="B7" s="20">
+        <v>1241.2470000000001</v>
+      </c>
+      <c r="F7" s="15">
         <f t="shared" si="1"/>
         <v>129.11011999999999</v>
       </c>
-      <c r="C7" s="20">
-        <f t="shared" si="1"/>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="D7" s="12">
-        <f t="shared" si="1"/>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="E7" s="13">
-        <f t="shared" si="1"/>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="F7" s="20">
-        <f t="shared" si="1"/>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="G7" s="20">
+      <c r="G7" s="15">
         <f t="shared" si="1"/>
         <v>129.11011999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="15">
+        <f>131715.43/1000</f>
+        <v>131.71543</v>
+      </c>
+      <c r="C8" s="15">
+        <f>1247655.29/1000</f>
+        <v>1247.6552900000002</v>
+      </c>
+      <c r="D8" s="13">
+        <f t="shared" si="1"/>
+        <v>129.11011999999999</v>
+      </c>
+      <c r="E8" s="14">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="B8" s="20">
+        <v>1241.2470000000001</v>
+      </c>
+      <c r="F8" s="15">
         <f t="shared" si="1"/>
         <v>129.11011999999999</v>
       </c>
-      <c r="C8" s="20">
-        <f t="shared" si="1"/>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="D8" s="18">
-        <f t="shared" si="1"/>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="E8" s="19">
-        <f t="shared" si="1"/>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="F8" s="20">
-        <f t="shared" si="1"/>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="G8" s="20">
+      <c r="G8" s="15">
         <f t="shared" si="1"/>
         <v>129.11011999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="16">
         <f>AVERAGE(B4:B8)</f>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="C9" s="21">
-        <f t="shared" ref="C9:G9" si="3">AVERAGE(C4:C8)</f>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="D9" s="10">
-        <f t="shared" si="3"/>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="E9" s="11">
-        <f t="shared" si="3"/>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="F9" s="21">
-        <f t="shared" si="3"/>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="G9" s="21">
-        <f t="shared" si="3"/>
+        <v>130.306026</v>
+      </c>
+      <c r="C9" s="16">
+        <f t="shared" ref="C9:G9" si="4">AVERAGE(C4:C8)</f>
+        <v>1244.5214120000001</v>
+      </c>
+      <c r="D9" s="7">
+        <f>AVERAGE(D4:D8)*0.6</f>
+        <v>77.466071999999997</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="4"/>
+        <v>1241.2470000000001</v>
+      </c>
+      <c r="F9" s="16">
+        <f t="shared" si="4"/>
+        <v>129.11011999999999</v>
+      </c>
+      <c r="G9" s="16">
+        <f t="shared" si="4"/>
         <v>129.11011999999999</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="7">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9">
+        <f>C9/B9</f>
+        <v>9.5507587039758235</v>
+      </c>
+      <c r="C10" s="18">
         <f>B9/C9</f>
+        <v>0.10470372365116044</v>
+      </c>
+      <c r="D10" s="9">
+        <f>E9/D9</f>
+        <v>16.023104927793423</v>
+      </c>
+      <c r="E10" s="18">
+        <f>D9/E9</f>
+        <v>6.2409876519339012E-2</v>
+      </c>
+      <c r="F10" s="17">
+        <f>G9/F9</f>
         <v>1</v>
       </c>
-      <c r="C10" s="8">
-        <f>C9/B9</f>
-        <v>1</v>
-      </c>
-      <c r="D10" s="14">
-        <f>D9/E9</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="15">
-        <f>E9/D9</f>
-        <v>1</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="G10" s="17">
         <f>F9/G9</f>
         <v>1</v>
       </c>
-      <c r="G10" s="8">
-        <f>G9/F9</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="F16" s="9"/>
+      <c r="F16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/PerformanceTesting.xlsx
+++ b/docs/PerformanceTesting.xlsx
@@ -316,10 +316,10 @@
                   <c:v>130.306026</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77.466071999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>129.11011999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -366,10 +366,10 @@
                   <c:v>1244.5214120000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1241.2470000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>129.11011999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -761,7 +761,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F4" sqref="F4:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -828,22 +828,10 @@
         <f>1245509.73/1000</f>
         <v>1245.50973</v>
       </c>
-      <c r="D4" s="11">
-        <f>129110.12/1000</f>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="E4" s="12">
-        <f>1241247/1000</f>
-        <v>1241.2470000000001</v>
-      </c>
-      <c r="F4" s="15">
-        <f t="shared" ref="F4:G4" si="0">129110.12/1000</f>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="G4" s="15">
-        <f t="shared" si="0"/>
-        <v>129.11011999999999</v>
-      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
@@ -858,26 +846,14 @@
         <f>1240732.15/1000</f>
         <v>1240.7321499999998</v>
       </c>
-      <c r="D5" s="9">
-        <f t="shared" ref="B5:G8" si="1">129110.12/1000</f>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="E5" s="10">
-        <f t="shared" ref="E5:E8" si="2">1241247/1000</f>
-        <v>1241.2470000000001</v>
-      </c>
-      <c r="F5" s="15">
-        <f t="shared" si="1"/>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="G5" s="15">
-        <f t="shared" si="1"/>
-        <v>129.11011999999999</v>
-      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <f t="shared" ref="A6:A8" si="3">A5+1</f>
+        <f t="shared" ref="A6:A8" si="0">A5+1</f>
         <v>3</v>
       </c>
       <c r="B6" s="15">
@@ -888,26 +864,14 @@
         <f>1247462.35/1000</f>
         <v>1247.46235</v>
       </c>
-      <c r="D6" s="9">
-        <f t="shared" si="1"/>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="E6" s="10">
-        <f t="shared" si="2"/>
-        <v>1241.2470000000001</v>
-      </c>
-      <c r="F6" s="15">
-        <f t="shared" si="1"/>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="G6" s="15">
-        <f t="shared" si="1"/>
-        <v>129.11011999999999</v>
-      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B7" s="15">
@@ -918,26 +882,14 @@
         <f>1241247.54/1000</f>
         <v>1241.2475400000001</v>
       </c>
-      <c r="D7" s="9">
-        <f t="shared" si="1"/>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="E7" s="10">
-        <f t="shared" si="2"/>
-        <v>1241.2470000000001</v>
-      </c>
-      <c r="F7" s="15">
-        <f t="shared" si="1"/>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="G7" s="15">
-        <f t="shared" si="1"/>
-        <v>129.11011999999999</v>
-      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1">
       <c r="A8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B8" s="15">
@@ -948,22 +900,10 @@
         <f>1247655.29/1000</f>
         <v>1247.6552900000002</v>
       </c>
-      <c r="D8" s="13">
-        <f t="shared" si="1"/>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="E8" s="14">
-        <f t="shared" si="2"/>
-        <v>1241.2470000000001</v>
-      </c>
-      <c r="F8" s="15">
-        <f t="shared" si="1"/>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="G8" s="15">
-        <f t="shared" si="1"/>
-        <v>129.11011999999999</v>
-      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickTop="1">
       <c r="A9" s="5" t="s">
@@ -974,24 +914,24 @@
         <v>130.306026</v>
       </c>
       <c r="C9" s="16">
-        <f t="shared" ref="C9:G9" si="4">AVERAGE(C4:C8)</f>
+        <f t="shared" ref="C9:G9" si="1">AVERAGE(C4:C8)</f>
         <v>1244.5214120000001</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="7" t="e">
         <f>AVERAGE(D4:D8)*0.6</f>
-        <v>77.466071999999997</v>
-      </c>
-      <c r="E9" s="8">
-        <f t="shared" si="4"/>
-        <v>1241.2470000000001</v>
-      </c>
-      <c r="F9" s="16">
-        <f t="shared" si="4"/>
-        <v>129.11011999999999</v>
-      </c>
-      <c r="G9" s="16">
-        <f t="shared" si="4"/>
-        <v>129.11011999999999</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E9" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F9" s="16" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G9" s="16" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1006,21 +946,21 @@
         <f>B9/C9</f>
         <v>0.10470372365116044</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="9" t="e">
         <f>E9/D9</f>
-        <v>16.023104927793423</v>
-      </c>
-      <c r="E10" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E10" s="18" t="e">
         <f>D9/E9</f>
-        <v>6.2409876519339012E-2</v>
-      </c>
-      <c r="F10" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F10" s="17" t="e">
         <f>G9/F9</f>
-        <v>1</v>
-      </c>
-      <c r="G10" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10" s="17" t="e">
         <f>F9/G9</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:7">

--- a/docs/PerformanceTesting.xlsx
+++ b/docs/PerformanceTesting.xlsx
@@ -27,9 +27,6 @@
     <t>Average</t>
   </si>
   <si>
-    <t>After Async Generation</t>
-  </si>
-  <si>
     <t>After Optimizing Work Size</t>
   </si>
   <si>
@@ -43,6 +40,9 @@
   </si>
   <si>
     <t>X Speedup</t>
+  </si>
+  <si>
+    <t>After Switching to Byte Kernel</t>
   </si>
 </sst>
 </file>
@@ -69,7 +69,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -196,22 +196,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -222,11 +211,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -298,10 +285,10 @@
                   <c:v>Before Improvements</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>After Async Generation</c:v>
+                  <c:v>After Optimizing Work Size</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>After Optimizing Work Size</c:v>
+                  <c:v>After Switching to Byte Kernel</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -316,10 +303,10 @@
                   <c:v>130.306026</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>63.991622000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>61.998095999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -348,10 +335,10 @@
                   <c:v>Before Improvements</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>After Async Generation</c:v>
+                  <c:v>After Optimizing Work Size</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>After Optimizing Work Size</c:v>
+                  <c:v>After Switching to Byte Kernel</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -366,33 +353,33 @@
                   <c:v>1244.5214120000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1247.2145059999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1245.9329559999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="78002816"/>
-        <c:axId val="94978432"/>
+        <c:axId val="90851968"/>
+        <c:axId val="95703424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78002816"/>
+        <c:axId val="90851968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94978432"/>
+        <c:crossAx val="95703424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94978432"/>
+        <c:axId val="95703424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -419,7 +406,7 @@
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78002816"/>
+        <c:crossAx val="90851968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -432,7 +419,159 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time to Evaluate 100</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Million Points </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11545144356955381"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$B$2,Sheet1!$D$2,Sheet1!$F$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Before Improvements</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>After Optimizing Work Size</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>After Switching to Byte Kernel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$B$9,Sheet1!$D$9,Sheet1!$F$9)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>130.306026</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.991622000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.998095999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="95720192"/>
+        <c:axId val="95721728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="95720192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="95721728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="95721728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="95720192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -465,6 +604,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -761,7 +930,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:G8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -775,21 +944,21 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="17"/>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -797,22 +966,22 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -820,147 +989,207 @@
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="13">
         <f>128345.64/1000</f>
         <v>128.34564</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <f>1245509.73/1000</f>
         <v>1245.50973</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="D4" s="10">
+        <f>64187.95/1000</f>
+        <v>64.187950000000001</v>
+      </c>
+      <c r="E4" s="11">
+        <f>1254713.01/1000</f>
+        <v>1254.7130099999999</v>
+      </c>
+      <c r="F4" s="13">
+        <f>61555.79/1000</f>
+        <v>61.555790000000002</v>
+      </c>
+      <c r="G4" s="11">
+        <f>1254713.01/1000</f>
+        <v>1254.7130099999999</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
         <f>A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="13">
         <f>127848.38/1000</f>
         <v>127.84838000000001</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <f>1240732.15/1000</f>
         <v>1240.7321499999998</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="D5" s="9">
+        <f>63708.56/1000</f>
+        <v>63.708559999999999</v>
+      </c>
+      <c r="E5" s="13">
+        <f>1247462.35/1000</f>
+        <v>1247.46235</v>
+      </c>
+      <c r="F5" s="13">
+        <f>62259.69/1000</f>
+        <v>62.259689999999999</v>
+      </c>
+      <c r="G5" s="13">
+        <f>1241247.54/1000</f>
+        <v>1241.2475400000001</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
         <f t="shared" ref="A6:A8" si="0">A5+1</f>
         <v>3</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <f>131921.15/1000</f>
         <v>131.92114999999998</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <f>1247462.35/1000</f>
         <v>1247.46235</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="D6" s="9">
+        <f>64396.9/1000</f>
+        <v>64.396900000000002</v>
+      </c>
+      <c r="E6" s="13">
+        <f>1245509.73/1000</f>
+        <v>1245.50973</v>
+      </c>
+      <c r="F6" s="13">
+        <f>62287.22/1000</f>
+        <v>62.287219999999998</v>
+      </c>
+      <c r="G6" s="13">
+        <f>1245509.73/1000</f>
+        <v>1245.50973</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="13">
         <f>131699.53/1000</f>
         <v>131.69953000000001</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <f>1241247.54/1000</f>
         <v>1241.2475400000001</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="D7" s="9">
+        <f>63985.7/1000</f>
+        <v>63.985699999999994</v>
+      </c>
+      <c r="E7" s="13">
+        <f>1247655.29/1000</f>
+        <v>1247.6552900000002</v>
+      </c>
+      <c r="F7" s="13">
+        <f>61890.2/1000</f>
+        <v>61.8902</v>
+      </c>
+      <c r="G7" s="13">
+        <f>1240732.15/1000</f>
+        <v>1240.7321499999998</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <f>131715.43/1000</f>
         <v>131.71543</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <f>1247655.29/1000</f>
         <v>1247.6552900000002</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="D8" s="12">
+        <f>63679/1000</f>
+        <v>63.679000000000002</v>
+      </c>
+      <c r="E8" s="13">
+        <f>1240732.15/1000</f>
+        <v>1240.7321499999998</v>
+      </c>
+      <c r="F8" s="13">
+        <f>61997.58/1000</f>
+        <v>61.997579999999999</v>
+      </c>
+      <c r="G8" s="13">
+        <f>1247462.35/1000</f>
+        <v>1247.46235</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickTop="1">
       <c r="A9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <f>AVERAGE(B4:B8)</f>
         <v>130.306026</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <f t="shared" ref="C9:G9" si="1">AVERAGE(C4:C8)</f>
         <v>1244.5214120000001</v>
       </c>
-      <c r="D9" s="7" t="e">
-        <f>AVERAGE(D4:D8)*0.6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E9" s="8" t="e">
+      <c r="D9" s="7">
+        <f>AVERAGE(D4:D8)</f>
+        <v>63.991622000000007</v>
+      </c>
+      <c r="E9" s="8">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="16" t="e">
+        <v>1247.2145059999998</v>
+      </c>
+      <c r="F9" s="14">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="16" t="e">
+        <v>61.998095999999997</v>
+      </c>
+      <c r="G9" s="14">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1245.9329559999999</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="9">
         <f>C9/B9</f>
         <v>9.5507587039758235</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="16">
         <f>B9/C9</f>
         <v>0.10470372365116044</v>
       </c>
-      <c r="D10" s="9" t="e">
+      <c r="D10" s="9">
         <f>E9/D9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10" s="18" t="e">
+        <v>19.490278055461694</v>
+      </c>
+      <c r="E10" s="16">
         <f>D9/E9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="17" t="e">
+        <v>5.1307631279266103E-2</v>
+      </c>
+      <c r="F10" s="15">
         <f>G9/F9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="17" t="e">
+        <v>20.096309989906786</v>
+      </c>
+      <c r="G10" s="13">
         <f>F9/G9</f>
-        <v>#DIV/0!</v>
+        <v>4.9760378920420824E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7">

--- a/docs/PerformanceTesting.xlsx
+++ b/docs/PerformanceTesting.xlsx
@@ -277,35 +277,20 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>(Sheet1!$B$2,Sheet1!$D$2,Sheet1!$F$2)</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Before Improvements</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>After Optimizing Work Size</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>After Switching to Byte Kernel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>GPU vs CPU</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$B$9,Sheet1!$D$9,Sheet1!$F$9)</c:f>
+              <c:f>Sheet1!$F$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>130.306026</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>63.991622000000007</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>61.998095999999997</c:v>
                 </c:pt>
               </c:numCache>
@@ -327,36 +312,21 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>(Sheet1!$B$2,Sheet1!$D$2,Sheet1!$F$2)</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Before Improvements</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>After Optimizing Work Size</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>After Switching to Byte Kernel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>GPU vs CPU</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$C$9,Sheet1!$E$9,Sheet1!$G$9)</c:f>
+              <c:f>Sheet1!$C$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1244.5214120000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1247.2145059999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1245.9329559999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -612,15 +582,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -930,7 +900,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
